--- a/Test case Registration Form Testing.xlsx
+++ b/Test case Registration Form Testing.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\The-first-TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E294207-65E0-47D5-A05A-360EDEB80F43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F67EE0-745D-478D-AF33-D000EBFFFD48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ED0CB4A-C668-418B-AF28-3AC0FDBBBE2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6ED0CB4A-C668-418B-AF28-3AC0FDBBBE2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,23 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Значение в поле "Имя" реагирует только на символы латиницы.</t>
-  </si>
-  <si>
     <t>Katia</t>
   </si>
   <si>
     <t>Значение принимается.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Проверка:</t>
-  </si>
-  <si>
     <t>Пример (условие):</t>
   </si>
   <si>
@@ -51,15 +48,9 @@
     <t>Xi</t>
   </si>
   <si>
-    <t>Значение в поле "Имя" минимально равно 2 символа.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Значение принимается.</t>
   </si>
   <si>
-    <t>Значение в поле "Имя" максимально равно 255 символам.</t>
-  </si>
-  <si>
     <t>Шаги:</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Martin-Luther</t>
   </si>
   <si>
-    <t>Использование спецсимволов в поле "Имя". б) Наличие спецсимвола апостраф (') в имени пользователя.</t>
-  </si>
-  <si>
     <t>В поле Name введено имя пользователя,разделённое спецсимволом апостраф (')</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>В поле Name введено имя пользователя,разделённое спецсимволом точка (.)</t>
   </si>
   <si>
-    <t>Использование спецсимволов в поле "Имя". А) Наличие спецсимвола тире (-) вначале имени пользователя.</t>
-  </si>
-  <si>
     <t>В поле Name введено имя пользователя со спецсимволом тире (-) вначале</t>
   </si>
   <si>
@@ -114,39 +99,18 @@
     <t>В поле Name введено имя пользователя,начинающееся со спецсимвола апостраф (')</t>
   </si>
   <si>
-    <t>Использование спецсимволов в поле "Имя". в) Наличие спецсимвола точка(.) в имени пользователя.</t>
-  </si>
-  <si>
-    <t>Использование спецсимволов в поле "Имя". А) Наличие спецсимвола тире (-) в имени пользователя.</t>
-  </si>
-  <si>
     <t>Vio'</t>
   </si>
   <si>
     <t>В поле Name введено имя пользователя со спецсимволом апостраф (') в конце</t>
   </si>
   <si>
-    <t>Использование спецсимволов в поле "Имя". Б) Наличие спецсимвола апостраф (') в конце имени пользователя.</t>
-  </si>
-  <si>
-    <t>Использование спецсимволов в поле "Имя". А) Наличие спецсимвола апостраф (') вначале имени пользователя.</t>
-  </si>
-  <si>
-    <t>Использование спецсимволов в поле "Имя". А) Наличие спецсимвола точка(.) вначале имени пользователя.</t>
-  </si>
-  <si>
-    <t>Использование спецсимволов в поле "Имя". Б) Наличие спецсимвола тире (-) в конце имени пользователя.</t>
-  </si>
-  <si>
     <t>.Danny</t>
   </si>
   <si>
     <t>В поле Name введено имя пользователя,начинающееся со спецсимвола точка (.)</t>
   </si>
   <si>
-    <t>Использование спецсимволов в поле "Имя". А) Наличие спецсимвола точка(.) в конце имени пользователя.</t>
-  </si>
-  <si>
     <t>Larry.</t>
   </si>
   <si>
@@ -234,9 +198,6 @@
     <t xml:space="preserve">В поле Name введено имя пользователя с использованием арабских символов </t>
   </si>
   <si>
-    <t>Значение в поле "Имя" минимально равно 1 символу</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -463,13 +424,418 @@
   </si>
   <si>
     <t>В поле Surname не введено ничего - оно остаётся пустым</t>
+  </si>
+  <si>
+    <t>Значение в поле Name  реагирует только на символы латиницы.</t>
+  </si>
+  <si>
+    <t>Значение в поле Name минимально равно 2 символа.</t>
+  </si>
+  <si>
+    <t>Значение в поле Name максимально равно 255 символам.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. А) Наличие спецсимвола тире (-) в имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. б) Наличие спецсимвола апостраф (') в имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. в) Наличие спецсимвола точка(.) в имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. А) Наличие спецсимвола тире (-) вначале имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. Б) Наличие спецсимвола тире (-) в конце имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. А) Наличие спецсимвола апостраф (') вначале имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. Б) Наличие спецсимвола апостраф (') в конце имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. А) Наличие спецсимвола точка(.) вначале имени пользователя.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Name. А) Наличие спецсимвола точка(.) в конце имени пользователя.</t>
+  </si>
+  <si>
+    <t>Значение в поле Name минимально равно 1 символу</t>
+  </si>
+  <si>
+    <t>Проверка поля Name  :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проверка поля Surname:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проверка поля Email:</t>
+  </si>
+  <si>
+    <t>Johnson@list.ru</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя пользователя с использованием символов латиницы.</t>
+  </si>
+  <si>
+    <t>Значение в поле Email реагирует только на символы латиницы.</t>
+  </si>
+  <si>
+    <t>Имя почтового ящика в поле Email минимально равно 2 символа.</t>
+  </si>
+  <si>
+    <t>Lu@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика из двух символов.</t>
+  </si>
+  <si>
+    <t>Значение в поле Email максимально равно 128 символам.</t>
+  </si>
+  <si>
+    <t>qwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyui@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика из ста двадцати восьми символов.</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. А) Наличие спецсимвола тире (-) в имени почтового ящика.</t>
+  </si>
+  <si>
+    <t>John-son@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В поле Email введено имя почтового ящика,разделённое спецсимволом тире (-) </t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. б) Наличие спецсимвола нижнее подчёркивание (_) в имени пользователя.</t>
+  </si>
+  <si>
+    <t>John_son@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя пользователя,разделённое спецсимволом нижнее подчёркивание (_)</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. в) Наличие спецсимвола точка(.) в имени почтового ящика.</t>
+  </si>
+  <si>
+    <t>John.son@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика,разделённое спецсимволом точка (.)</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. А) Наличие спецсимвола тире (-) вначале имени почтового ящика.</t>
+  </si>
+  <si>
+    <t>-'Faded@list.ru</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика со спецсимволом тире (-) вначале</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. Б) Наличие спецсимвола тире (-) в конце имени почтового ящика.</t>
+  </si>
+  <si>
+    <t>Johnson-@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика со спецсимволом тире (-) в конце</t>
+  </si>
+  <si>
+    <t>_Jonhson@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика,начинающееся спецсимволом нижнее подчёркивание (_)</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. б) Наличие спецсимвола нижнее подчёркивание (_) в конце имени почтового ящика</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. б) Наличие спецсимвола нижнее подчёркивание (_) вначале имени почтового ящика.</t>
+  </si>
+  <si>
+    <t>Johnson_@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика,заканчивающееся спецсимволом нижнее подчёркивание (_)</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. в) Наличие спецсимвола точка(.) вначале имени почтового ящика.</t>
+  </si>
+  <si>
+    <t>.Johnson@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика,начинающееся со спецсимвола точка (.)</t>
+  </si>
+  <si>
+    <t>Использование спецсимволов в поле Email. в) Наличие спецсимвола точка(.) в конце имени почтового ящика.</t>
+  </si>
+  <si>
+    <t>Johnson.@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика,заканчивающееся спецсимволом точка (.)</t>
+  </si>
+  <si>
+    <t>Использование цифр в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t>12345@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email ( имя почтового ящика) введено только цифровое значение</t>
+  </si>
+  <si>
+    <t>Регистронезависимость в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика исключительно в верхнем регистре</t>
+  </si>
+  <si>
+    <t>JOHNSON@list.ru</t>
+  </si>
+  <si>
+    <t>Частичное использование верхнего регистра в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t>В поле Email введено имя почтового ящика частично в верхнем регистре</t>
+  </si>
+  <si>
+    <t>JoHnsOn@list.ru</t>
+  </si>
+  <si>
+    <t>Johnson Brown@list.ru</t>
+  </si>
+  <si>
+    <t>Использование пробела между словами в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t>В поле Email в имени почтового ящика между двумя словами внесён пробел</t>
+  </si>
+  <si>
+    <t>Использование пробела перед словом в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Brown@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email в имени почтового ящика перед первым словом внесён пробел</t>
+  </si>
+  <si>
+    <t>Использование пробела после слова в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown @hotmail.com </t>
+  </si>
+  <si>
+    <t>В поле Email в имени почтового ящика после имени почтового ящика,перед собакой внесён пробел</t>
+  </si>
+  <si>
+    <t>Использование кириллических символов в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t>Иванов@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email (имя почтового ящика)  введено имя с использованием символов кириллицы.</t>
+  </si>
+  <si>
+    <t>Использование иегролифических символов в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t>卡佳@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email (имя почтового ящика)  введено имя с использованием иероглифических символов</t>
+  </si>
+  <si>
+    <t>Использование арабских символов в строке Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t>كاتيا@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email (имя почтового ящика)  введено имя с использованием арабских символов</t>
+  </si>
+  <si>
+    <t>Обязательное для заполнения поле Email</t>
+  </si>
+  <si>
+    <t>Поле Email пустое</t>
+  </si>
+  <si>
+    <t>В поле Email не введено ничего - оно остаётся пустым</t>
+  </si>
+  <si>
+    <t>Использование иных спецсимволов в строке  Email (имя почтового ящика)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   *#$%@hotmail.com</t>
+  </si>
+  <si>
+    <t>В поле Email (имя пользователя) введено имя пользователя из нескольких случайных спецсимволов.</t>
+  </si>
+  <si>
+    <t>В поле Email указан символ @</t>
+  </si>
+  <si>
+    <t>В поле Email не указан символ @</t>
+  </si>
+  <si>
+    <t>В поле Email не введен символ @</t>
+  </si>
+  <si>
+    <t>Значение  принимается</t>
+  </si>
+  <si>
+    <t>katia@12345.12</t>
+  </si>
+  <si>
+    <t>После символа @ введены исключительно цифровые значения</t>
+  </si>
+  <si>
+    <t>После символа @ указаны исключительно цифры</t>
+  </si>
+  <si>
+    <t>После символа @ в домене первого уровня указаны исключительно цифры</t>
+  </si>
+  <si>
+    <t>katia@12345.com</t>
+  </si>
+  <si>
+    <t>После символа @ в домене первого уровня введены исключительно цифры</t>
+  </si>
+  <si>
+    <t>После символа @ в домене второго уровня указаны исключительно цифры</t>
+  </si>
+  <si>
+    <t>katia@hotmail.12</t>
+  </si>
+  <si>
+    <t>После символа @ в домене второго уровня введены исключительно цифры</t>
+  </si>
+  <si>
+    <t>В поле Email указан двойной символ @</t>
+  </si>
+  <si>
+    <t>katia@@hotmail.12</t>
+  </si>
+  <si>
+    <t>В поле Email введён двойной символ @</t>
+  </si>
+  <si>
+    <t>После символа @ указан один символ в домене первого уровня</t>
+  </si>
+  <si>
+    <t>katia@a.com</t>
+  </si>
+  <si>
+    <t>После символа @ введён один символ в домене первого уровня</t>
+  </si>
+  <si>
+    <t>В домене второго уровня максимальное допустимое количество символов равно 16</t>
+  </si>
+  <si>
+    <t>katia@hotmail.qwertyuiopasdfgh</t>
+  </si>
+  <si>
+    <t>В домене второго уровня введено максимальное допустимое количество символов равное 16</t>
+  </si>
+  <si>
+    <t>Проверка поля Password  :</t>
+  </si>
+  <si>
+    <t>Значение в поле Password реагирует только на символы латиницы.</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>В поле Password введены только символы латиницы.</t>
+  </si>
+  <si>
+    <t>1Sfg$</t>
+  </si>
+  <si>
+    <t>В поле введено 5 символов</t>
+  </si>
+  <si>
+    <t>Максимальное количество принимаемых символов равно 32</t>
+  </si>
+  <si>
+    <t>12Ghnbvjfuy^^$gdHnbvhtdsEWRTREW$</t>
+  </si>
+  <si>
+    <t>В поле введено 32 символа</t>
+  </si>
+  <si>
+    <t>Минимальное количество принимаемых символов равно 5</t>
+  </si>
+  <si>
+    <t>Минимальное количество принимаемых спецсимволов равно                                                          1</t>
+  </si>
+  <si>
+    <t>В поле введён как минимум 1 спецсимвол</t>
+  </si>
+  <si>
+    <t>Минимальное количество принимаемых букв в верхнем регистре  равно  1</t>
+  </si>
+  <si>
+    <t>Cvty^5</t>
+  </si>
+  <si>
+    <t>В поле введена как минимум ода буква в верхнем регистре</t>
+  </si>
+  <si>
+    <t>Минимальное количество принимаемых цифр равно 1</t>
+  </si>
+  <si>
+    <t>C4bf$</t>
+  </si>
+  <si>
+    <t>В поле введёна как минимум 1 цифра</t>
+  </si>
+  <si>
+    <t>Значение в поле Password реагирует на символы латиницы.</t>
+  </si>
+  <si>
+    <t>Па5;г</t>
+  </si>
+  <si>
+    <t>В поле Password введены символы кириллицы.</t>
+  </si>
+  <si>
+    <t>1卡佳$6</t>
+  </si>
+  <si>
+    <t>В поле Password введены иероглифические символы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение в поле Password реагирует на иероглифические символы </t>
+  </si>
+  <si>
+    <t>Значение в поле Password реагирует на символы кириллицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение в поле Password реагирует на арабские символы </t>
+  </si>
+  <si>
+    <t>$$$كاتيا12</t>
+  </si>
+  <si>
+    <t>В поле Password введены арабские символы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +871,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +900,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -535,10 +922,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,8 +970,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -896,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79ED7058-C4E4-4886-A1CF-088AF0BC6CDD}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -933,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,16 +1366,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -967,16 +1383,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -984,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1001,16 +1417,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1018,16 +1434,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -1035,16 +1451,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1052,16 +1468,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1069,16 +1485,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -1086,16 +1502,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1103,16 +1519,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1120,16 +1536,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1137,16 +1553,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C15" s="9">
         <v>123456</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1154,16 +1570,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1171,16 +1587,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1188,16 +1604,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -1205,16 +1621,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -1222,16 +1638,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1239,16 +1655,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1256,16 +1672,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1273,16 +1689,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1290,16 +1706,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1307,16 +1723,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1324,438 +1740,1257 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="9">
-        <v>12345</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489B41B-CD90-4441-8738-226562B8033B}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.77734375" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>12345</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E31AD4-2EAC-4A70-89CC-E9F82804A956}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="59.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1199FE7B-5E1A-4E56-82E8-D4F77621D8BA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{BA72A7BE-46A3-4C97-855C-E599DE4EC139}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{DC57F557-B958-4947-A46E-21CBB2A2188F}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0EC3F706-77F7-4A8F-89FF-2AC9CA651A2D}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{9634DC45-56A6-4E35-95CA-64389EB4F7CE}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{DE8AE199-CC03-4DC2-9E63-62901D7A2AB6}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{1FF7F585-7A4B-4290-BCAE-190BF41E11C4}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{F4AF0EE8-4B54-4B08-8987-BAE2A03215C8}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{6DDC39EE-CB98-4C1E-9EC9-48BA6A0F6689}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{8CBCC418-AAC5-4143-9CCD-17EE674F46F2}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{241F3D0E-FC17-4C7E-82EE-0788777D846D}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{41FC0F43-C264-47EF-9092-97683C07EADC}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{84DD3021-7D62-48B4-8C87-23FBBD8F6E11}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{EF350945-0C6D-4583-8E68-D88510DD1D6E}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{9A0BD399-5BB8-42C8-8BD5-D61D7AB150D0}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{19B80087-2669-4D5B-ADD7-3933AB646EB2}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{383332EB-AB3E-4BD4-BD30-6CFD200E7027}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{58986869-5B2D-417B-9845-E2562B8B1215}"/>
+    <hyperlink ref="C27" r:id="rId19" xr:uid="{B828CBCC-FB3B-42D0-BDB7-E70C9A52E5D4}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{0581393C-40A4-4FB7-B085-10F229EA764B}"/>
+    <hyperlink ref="C29" r:id="rId21" display="katia@hotmail.12" xr:uid="{E0023029-138E-4EF0-B288-A25B2AD49173}"/>
+    <hyperlink ref="C30" r:id="rId22" xr:uid="{C82E367B-9A7E-470B-BE65-638EFE94A344}"/>
+    <hyperlink ref="C31" r:id="rId23" xr:uid="{E78E3DC4-27BA-4BF3-9DE9-16A7012AFA90}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4EDE04-0091-4BE6-BA8A-C3876CD911F0}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test case Registration Form Testing.xlsx
+++ b/Test case Registration Form Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\The-first-TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F67EE0-745D-478D-AF33-D000EBFFFD48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDAD343-6BDB-42B6-ACDF-82AB6A80D652}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6ED0CB4A-C668-418B-AF28-3AC0FDBBBE2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ED0CB4A-C668-418B-AF28-3AC0FDBBBE2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Katia</t>
   </si>
   <si>
-    <t>Значение принимается.</t>
-  </si>
-  <si>
     <t>Пример (условие):</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Xi</t>
   </si>
   <si>
-    <t xml:space="preserve"> Значение принимается.</t>
-  </si>
-  <si>
     <t>Шаги:</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>В поле Name введено имя пользователя со спецсимволом тире (-) вначале</t>
   </si>
   <si>
-    <t xml:space="preserve"> Значение не принимается.</t>
-  </si>
-  <si>
     <t>Larry-</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t xml:space="preserve">В поле Name введено имя пользователя с использованием иероглифических символов </t>
   </si>
   <si>
-    <t>Значение не принимается</t>
-  </si>
-  <si>
     <t>Использование арабских символов в строке Name</t>
   </si>
   <si>
@@ -465,15 +453,6 @@
     <t>Значение в поле Name минимально равно 1 символу</t>
   </si>
   <si>
-    <t>Проверка поля Name  :</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Проверка поля Surname:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Проверка поля Email:</t>
-  </si>
-  <si>
     <t>Johnson@list.ru</t>
   </si>
   <si>
@@ -690,9 +669,6 @@
     <t>В поле Email не введен символ @</t>
   </si>
   <si>
-    <t>Значение  принимается</t>
-  </si>
-  <si>
     <t>katia@12345.12</t>
   </si>
   <si>
@@ -747,9 +723,6 @@
     <t>В домене второго уровня введено максимальное допустимое количество символов равное 16</t>
   </si>
   <si>
-    <t>Проверка поля Password  :</t>
-  </si>
-  <si>
     <t>Значение в поле Password реагирует только на символы латиницы.</t>
   </si>
   <si>
@@ -829,6 +802,24 @@
   </si>
   <si>
     <t>В поле Password введены арабские символы</t>
+  </si>
+  <si>
+    <t>Входные Параметры Name  :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Входные Параметры Surname:</t>
+  </si>
+  <si>
+    <t>Входные Параметры Email:</t>
+  </si>
+  <si>
+    <t>Входные Параметры Password  :</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -881,7 +872,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,24 +887,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -921,80 +906,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1314,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79ED7058-C4E4-4886-A1CF-088AF0BC6CDD}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,436 +1350,443 @@
     <col min="5" max="5" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E4" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="91.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B10" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="B13" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16">
+        <v>123456</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="B22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="B25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9">
-        <v>123456</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>19</v>
+      <c r="E26" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1768,442 +1798,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489B41B-CD90-4441-8738-226562B8033B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="57.77734375" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" customWidth="1"/>
     <col min="4" max="4" width="47.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="E11" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E12" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C14" s="16">
+        <v>12345</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E14" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="D15" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="9">
-        <v>12345</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E15" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D16" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E16" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D17" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E17" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D18" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E18" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C19" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D19" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E19" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C20" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E20" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="E21" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="E22" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="E23" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C24" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D24" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E24" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="C25" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>52</v>
+      <c r="E25" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2215,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E31AD4-2EAC-4A70-89CC-E9F82804A956}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2228,531 +2258,531 @@
     <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C4" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="81.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="87.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C8" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E8" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="C9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C20" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E20" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C21" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E21" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C22" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E22" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="C23" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D23" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E23" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="C24" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D24" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E24" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="C25" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E25" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="D26" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E26" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C27" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D27" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E27" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="C28" s="21" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="D28" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="D29" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="E29" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="C30" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="D30" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="E30" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="C31" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="D31" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>6</v>
+      <c r="E31" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2790,204 +2820,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4EDE04-0091-4BE6-BA8A-C3876CD911F0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" customWidth="1"/>
     <col min="4" max="4" width="37.109375" customWidth="1"/>
     <col min="5" max="5" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="B8" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C8" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="D8" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D9" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="D5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C11" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="D11" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>6</v>
+      <c r="E11" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
